--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報更新.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報更新.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968BB52F-CE8C-4D33-9EDC-7C398386FFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9B1FD-975C-424E-82B3-9E1B23C1DD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="111">
   <si>
     <t>No</t>
   </si>
@@ -333,9 +333,6 @@
     <t>nguyen</t>
   </si>
   <si>
-    <t>827ccb0eea8a706c4c34a16891f84e7b</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -367,6 +364,96 @@
   </si>
   <si>
     <t>20240508</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>20240529</t>
+  </si>
+  <si>
+    <t>123131231231</t>
+  </si>
+  <si>
+    <t>E00002</t>
+  </si>
+  <si>
+    <t>1368ba1ab6ed38bb1f26f36673739d54</t>
+  </si>
+  <si>
+    <t>2019-06-05</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2310859</t>
+  </si>
+  <si>
+    <t>07012344322</t>
+  </si>
+  <si>
+    <t>e002@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240417</t>
+  </si>
+  <si>
+    <t>111111111113</t>
+  </si>
+  <si>
+    <t>E00003</t>
+  </si>
+  <si>
+    <t>社員</t>
+  </si>
+  <si>
+    <t>19860103</t>
+  </si>
+  <si>
+    <t>07012344323</t>
+  </si>
+  <si>
+    <t>e003@it-softtech.com</t>
+  </si>
+  <si>
+    <t>E00004</t>
+  </si>
+  <si>
+    <t>nguye</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>20000101</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20230301</t>
+  </si>
+  <si>
+    <t>2312311</t>
+  </si>
+  <si>
+    <t>12312312</t>
+  </si>
+  <si>
+    <t>9292929299</t>
+  </si>
+  <si>
+    <t>e0102@it-softtech.com</t>
+  </si>
+  <si>
+    <t>20240426</t>
+  </si>
+  <si>
+    <t>E00005</t>
+  </si>
+  <si>
+    <t>nguy</t>
   </si>
 </sst>
 </file>
@@ -1244,43 +1331,172 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1291,135 +1507,6 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2341,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -2421,1196 +2508,1196 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="117" t="s">
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="119"/>
-      <c r="U4" s="120" t="s">
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="88"/>
+      <c r="U4" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="101"/>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="101"/>
-      <c r="AF4" s="101"/>
-      <c r="AG4" s="101"/>
-      <c r="AH4" s="101"/>
-      <c r="AI4" s="101"/>
-      <c r="AJ4" s="101"/>
-      <c r="AK4" s="101"/>
-      <c r="AL4" s="101"/>
-      <c r="AM4" s="101"/>
-      <c r="AN4" s="101"/>
-      <c r="AO4" s="101"/>
-      <c r="AP4" s="101"/>
-      <c r="AQ4" s="101"/>
-      <c r="AR4" s="101"/>
-      <c r="AS4" s="101"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="101"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="97" t="s">
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="90"/>
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="90"/>
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="98"/>
-      <c r="AY4" s="99"/>
-      <c r="AZ4" s="100">
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="94"/>
+      <c r="AZ4" s="95">
         <v>45096</v>
       </c>
-      <c r="BA4" s="101"/>
-      <c r="BB4" s="101"/>
-      <c r="BC4" s="101"/>
-      <c r="BD4" s="101"/>
-      <c r="BE4" s="101"/>
-      <c r="BF4" s="97" t="s">
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="98"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="100" t="s">
+      <c r="BG4" s="93"/>
+      <c r="BH4" s="94"/>
+      <c r="BI4" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BJ4" s="101"/>
-      <c r="BK4" s="101"/>
-      <c r="BL4" s="101"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="90"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="102" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="108"/>
-      <c r="Y5" s="108"/>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="108"/>
-      <c r="AM5" s="108"/>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="108"/>
-      <c r="AT5" s="108"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="109"/>
-      <c r="AW5" s="102" t="s">
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="102"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="102"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="102"/>
+      <c r="AC5" s="102"/>
+      <c r="AD5" s="102"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="102"/>
+      <c r="AI5" s="102"/>
+      <c r="AJ5" s="102"/>
+      <c r="AK5" s="102"/>
+      <c r="AL5" s="102"/>
+      <c r="AM5" s="102"/>
+      <c r="AN5" s="102"/>
+      <c r="AO5" s="102"/>
+      <c r="AP5" s="102"/>
+      <c r="AQ5" s="102"/>
+      <c r="AR5" s="102"/>
+      <c r="AS5" s="102"/>
+      <c r="AT5" s="102"/>
+      <c r="AU5" s="102"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="103"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="103"/>
-      <c r="BA5" s="103"/>
-      <c r="BB5" s="103"/>
-      <c r="BC5" s="103"/>
-      <c r="BD5" s="103"/>
-      <c r="BE5" s="103"/>
-      <c r="BF5" s="102" t="s">
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="98"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="103"/>
-      <c r="BH5" s="104"/>
-      <c r="BI5" s="103"/>
-      <c r="BJ5" s="108"/>
-      <c r="BK5" s="108"/>
-      <c r="BL5" s="108"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="98"/>
+      <c r="BI5" s="97"/>
+      <c r="BJ5" s="102"/>
+      <c r="BK5" s="102"/>
+      <c r="BL5" s="102"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="96"/>
-      <c r="K7" s="96"/>
-      <c r="L7" s="96" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="96"/>
-      <c r="N7" s="96"/>
-      <c r="O7" s="96"/>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-      <c r="S7" s="93" t="s">
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="107"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="94"/>
-      <c r="AJ7" s="95"/>
-      <c r="AK7" s="93" t="s">
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="105"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="105"/>
+      <c r="AH7" s="105"/>
+      <c r="AI7" s="105"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AL7" s="94"/>
-      <c r="AM7" s="94"/>
-      <c r="AN7" s="94"/>
-      <c r="AO7" s="94"/>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="94"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="94"/>
-      <c r="AU7" s="94"/>
-      <c r="AV7" s="94"/>
-      <c r="AW7" s="94"/>
-      <c r="AX7" s="95"/>
-      <c r="AY7" s="93" t="s">
+      <c r="AL7" s="105"/>
+      <c r="AM7" s="105"/>
+      <c r="AN7" s="105"/>
+      <c r="AO7" s="105"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="105"/>
+      <c r="AR7" s="105"/>
+      <c r="AS7" s="105"/>
+      <c r="AT7" s="105"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="105"/>
+      <c r="AW7" s="105"/>
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="94"/>
-      <c r="BB7" s="94"/>
-      <c r="BC7" s="94"/>
-      <c r="BD7" s="95"/>
-      <c r="BE7" s="93" t="s">
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="105"/>
+      <c r="BB7" s="105"/>
+      <c r="BC7" s="105"/>
+      <c r="BD7" s="106"/>
+      <c r="BE7" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="94"/>
-      <c r="BG7" s="94"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="95"/>
-      <c r="BJ7" s="93" t="s">
+      <c r="BF7" s="105"/>
+      <c r="BG7" s="105"/>
+      <c r="BH7" s="105"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="BK7" s="94"/>
-      <c r="BL7" s="94"/>
-      <c r="BM7" s="95"/>
+      <c r="BK7" s="105"/>
+      <c r="BL7" s="105"/>
+      <c r="BM7" s="106"/>
     </row>
     <row r="8" spans="1:65" ht="42" customHeight="1">
-      <c r="A8" s="88">
+      <c r="A8" s="111">
         <v>2</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90" t="s">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="122" t="s">
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="75"/>
-      <c r="W8" s="75"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="75"/>
-      <c r="AB8" s="75"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="66" t="s">
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="78"/>
+      <c r="AK8" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="67"/>
-      <c r="AQ8" s="67"/>
-      <c r="AR8" s="67"/>
-      <c r="AS8" s="67"/>
-      <c r="AT8" s="67"/>
-      <c r="AU8" s="67"/>
-      <c r="AV8" s="67"/>
-      <c r="AW8" s="67"/>
-      <c r="AX8" s="68"/>
-      <c r="AY8" s="81" t="s">
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="83"/>
-      <c r="BE8" s="66" t="s">
+      <c r="AZ8" s="109"/>
+      <c r="BA8" s="109"/>
+      <c r="BB8" s="109"/>
+      <c r="BC8" s="109"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="69">
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="68">
         <v>45441</v>
       </c>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="67"/>
-      <c r="BM8" s="68"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="67"/>
     </row>
     <row r="9" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A9" s="72">
+      <c r="A9" s="71">
         <v>3</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="84" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="74" t="s">
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="66" t="s">
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="77"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
+      <c r="AJ9" s="78"/>
+      <c r="AK9" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="68"/>
-      <c r="AY9" s="80" t="s">
+      <c r="AL9" s="66"/>
+      <c r="AM9" s="66"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="66"/>
+      <c r="AT9" s="66"/>
+      <c r="AU9" s="66"/>
+      <c r="AV9" s="66"/>
+      <c r="AW9" s="66"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="80"/>
-      <c r="BA9" s="80"/>
-      <c r="BB9" s="80"/>
-      <c r="BC9" s="80"/>
-      <c r="BD9" s="80"/>
-      <c r="BE9" s="66" t="s">
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="69">
+      <c r="BF9" s="66"/>
+      <c r="BG9" s="66"/>
+      <c r="BH9" s="66"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="68">
         <v>45441</v>
       </c>
-      <c r="BK9" s="70"/>
-      <c r="BL9" s="70"/>
-      <c r="BM9" s="71"/>
+      <c r="BK9" s="69"/>
+      <c r="BL9" s="69"/>
+      <c r="BM9" s="70"/>
     </row>
     <row r="10" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A10" s="72">
+      <c r="A10" s="71">
         <v>4</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="84" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="74" t="s">
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="66" t="s">
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="78"/>
+      <c r="AK10" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL10" s="67"/>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
-      <c r="AQ10" s="67"/>
-      <c r="AR10" s="67"/>
-      <c r="AS10" s="67"/>
-      <c r="AT10" s="67"/>
-      <c r="AU10" s="67"/>
-      <c r="AV10" s="67"/>
-      <c r="AW10" s="67"/>
-      <c r="AX10" s="68"/>
-      <c r="AY10" s="80" t="s">
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="67"/>
+      <c r="AY10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ10" s="80"/>
-      <c r="BA10" s="80"/>
-      <c r="BB10" s="80"/>
-      <c r="BC10" s="80"/>
-      <c r="BD10" s="80"/>
-      <c r="BE10" s="66" t="s">
+      <c r="AZ10" s="64"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="64"/>
+      <c r="BE10" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF10" s="67"/>
-      <c r="BG10" s="67"/>
-      <c r="BH10" s="67"/>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="69">
+      <c r="BF10" s="66"/>
+      <c r="BG10" s="66"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="67"/>
+      <c r="BJ10" s="68">
         <v>45441</v>
       </c>
-      <c r="BK10" s="67"/>
-      <c r="BL10" s="67"/>
-      <c r="BM10" s="68"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="67"/>
     </row>
     <row r="11" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A11" s="72">
+      <c r="A11" s="71">
         <v>5</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="84" t="s">
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="74" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="75"/>
-      <c r="X11" s="75"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
-      <c r="AI11" s="75"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="66" t="s">
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL11" s="67"/>
-      <c r="AM11" s="67"/>
-      <c r="AN11" s="67"/>
-      <c r="AO11" s="67"/>
-      <c r="AP11" s="67"/>
-      <c r="AQ11" s="67"/>
-      <c r="AR11" s="67"/>
-      <c r="AS11" s="67"/>
-      <c r="AT11" s="67"/>
-      <c r="AU11" s="67"/>
-      <c r="AV11" s="67"/>
-      <c r="AW11" s="67"/>
-      <c r="AX11" s="68"/>
-      <c r="AY11" s="80" t="s">
+      <c r="AL11" s="66"/>
+      <c r="AM11" s="66"/>
+      <c r="AN11" s="66"/>
+      <c r="AO11" s="66"/>
+      <c r="AP11" s="66"/>
+      <c r="AQ11" s="66"/>
+      <c r="AR11" s="66"/>
+      <c r="AS11" s="66"/>
+      <c r="AT11" s="66"/>
+      <c r="AU11" s="66"/>
+      <c r="AV11" s="66"/>
+      <c r="AW11" s="66"/>
+      <c r="AX11" s="67"/>
+      <c r="AY11" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ11" s="80"/>
-      <c r="BA11" s="80"/>
-      <c r="BB11" s="80"/>
-      <c r="BC11" s="80"/>
-      <c r="BD11" s="80"/>
-      <c r="BE11" s="66" t="s">
+      <c r="AZ11" s="64"/>
+      <c r="BA11" s="64"/>
+      <c r="BB11" s="64"/>
+      <c r="BC11" s="64"/>
+      <c r="BD11" s="64"/>
+      <c r="BE11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF11" s="67"/>
-      <c r="BG11" s="67"/>
-      <c r="BH11" s="67"/>
-      <c r="BI11" s="68"/>
-      <c r="BJ11" s="69">
+      <c r="BF11" s="66"/>
+      <c r="BG11" s="66"/>
+      <c r="BH11" s="66"/>
+      <c r="BI11" s="67"/>
+      <c r="BJ11" s="68">
         <v>45441</v>
       </c>
-      <c r="BK11" s="70"/>
-      <c r="BL11" s="70"/>
-      <c r="BM11" s="71"/>
+      <c r="BK11" s="69"/>
+      <c r="BL11" s="69"/>
+      <c r="BM11" s="70"/>
     </row>
     <row r="12" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A12" s="72">
+      <c r="A12" s="71">
         <v>6</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="84" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="74" t="s">
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
-      <c r="AI12" s="75"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="66" t="s">
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="78"/>
+      <c r="AK12" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="67"/>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="67"/>
-      <c r="AS12" s="67"/>
-      <c r="AT12" s="67"/>
-      <c r="AU12" s="67"/>
-      <c r="AV12" s="67"/>
-      <c r="AW12" s="67"/>
-      <c r="AX12" s="68"/>
-      <c r="AY12" s="80" t="s">
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="67"/>
+      <c r="AY12" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ12" s="80"/>
-      <c r="BA12" s="80"/>
-      <c r="BB12" s="80"/>
-      <c r="BC12" s="80"/>
-      <c r="BD12" s="80"/>
-      <c r="BE12" s="66" t="s">
+      <c r="AZ12" s="64"/>
+      <c r="BA12" s="64"/>
+      <c r="BB12" s="64"/>
+      <c r="BC12" s="64"/>
+      <c r="BD12" s="64"/>
+      <c r="BE12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF12" s="67"/>
-      <c r="BG12" s="67"/>
-      <c r="BH12" s="67"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="69">
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="67"/>
+      <c r="BJ12" s="68">
         <v>45441</v>
       </c>
-      <c r="BK12" s="67"/>
-      <c r="BL12" s="67"/>
-      <c r="BM12" s="68"/>
+      <c r="BK12" s="66"/>
+      <c r="BL12" s="66"/>
+      <c r="BM12" s="67"/>
     </row>
     <row r="13" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A13" s="72">
+      <c r="A13" s="71">
         <v>7</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="84" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="74" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="75"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="66" t="s">
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+      <c r="X13" s="77"/>
+      <c r="Y13" s="77"/>
+      <c r="Z13" s="77"/>
+      <c r="AA13" s="77"/>
+      <c r="AB13" s="77"/>
+      <c r="AC13" s="77"/>
+      <c r="AD13" s="77"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+      <c r="AJ13" s="78"/>
+      <c r="AK13" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL13" s="67"/>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="67"/>
-      <c r="AP13" s="67"/>
-      <c r="AQ13" s="67"/>
-      <c r="AR13" s="67"/>
-      <c r="AS13" s="67"/>
-      <c r="AT13" s="67"/>
-      <c r="AU13" s="67"/>
-      <c r="AV13" s="67"/>
-      <c r="AW13" s="67"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="80" t="s">
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="66"/>
+      <c r="AT13" s="66"/>
+      <c r="AU13" s="66"/>
+      <c r="AV13" s="66"/>
+      <c r="AW13" s="66"/>
+      <c r="AX13" s="67"/>
+      <c r="AY13" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ13" s="80"/>
-      <c r="BA13" s="80"/>
-      <c r="BB13" s="80"/>
-      <c r="BC13" s="80"/>
-      <c r="BD13" s="80"/>
-      <c r="BE13" s="66" t="s">
+      <c r="AZ13" s="64"/>
+      <c r="BA13" s="64"/>
+      <c r="BB13" s="64"/>
+      <c r="BC13" s="64"/>
+      <c r="BD13" s="64"/>
+      <c r="BE13" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF13" s="67"/>
-      <c r="BG13" s="67"/>
-      <c r="BH13" s="67"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="69">
+      <c r="BF13" s="66"/>
+      <c r="BG13" s="66"/>
+      <c r="BH13" s="66"/>
+      <c r="BI13" s="67"/>
+      <c r="BJ13" s="68">
         <v>45441</v>
       </c>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="70"/>
-      <c r="BM13" s="71"/>
+      <c r="BK13" s="69"/>
+      <c r="BL13" s="69"/>
+      <c r="BM13" s="70"/>
     </row>
     <row r="14" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A14" s="72">
+      <c r="A14" s="71">
         <v>8</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="84" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="74" t="s">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="75"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="75"/>
-      <c r="AB14" s="75"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="66" t="s">
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+      <c r="X14" s="77"/>
+      <c r="Y14" s="77"/>
+      <c r="Z14" s="77"/>
+      <c r="AA14" s="77"/>
+      <c r="AB14" s="77"/>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="77"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="77"/>
+      <c r="AI14" s="77"/>
+      <c r="AJ14" s="78"/>
+      <c r="AK14" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="67"/>
-      <c r="AM14" s="67"/>
-      <c r="AN14" s="67"/>
-      <c r="AO14" s="67"/>
-      <c r="AP14" s="67"/>
-      <c r="AQ14" s="67"/>
-      <c r="AR14" s="67"/>
-      <c r="AS14" s="67"/>
-      <c r="AT14" s="67"/>
-      <c r="AU14" s="67"/>
-      <c r="AV14" s="67"/>
-      <c r="AW14" s="67"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="80" t="s">
+      <c r="AL14" s="66"/>
+      <c r="AM14" s="66"/>
+      <c r="AN14" s="66"/>
+      <c r="AO14" s="66"/>
+      <c r="AP14" s="66"/>
+      <c r="AQ14" s="66"/>
+      <c r="AR14" s="66"/>
+      <c r="AS14" s="66"/>
+      <c r="AT14" s="66"/>
+      <c r="AU14" s="66"/>
+      <c r="AV14" s="66"/>
+      <c r="AW14" s="66"/>
+      <c r="AX14" s="67"/>
+      <c r="AY14" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ14" s="80"/>
-      <c r="BA14" s="80"/>
-      <c r="BB14" s="80"/>
-      <c r="BC14" s="80"/>
-      <c r="BD14" s="80"/>
-      <c r="BE14" s="66" t="s">
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="64"/>
+      <c r="BB14" s="64"/>
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF14" s="67"/>
-      <c r="BG14" s="67"/>
-      <c r="BH14" s="67"/>
-      <c r="BI14" s="68"/>
-      <c r="BJ14" s="69">
+      <c r="BF14" s="66"/>
+      <c r="BG14" s="66"/>
+      <c r="BH14" s="66"/>
+      <c r="BI14" s="67"/>
+      <c r="BJ14" s="68">
         <v>45441</v>
       </c>
-      <c r="BK14" s="67"/>
-      <c r="BL14" s="67"/>
-      <c r="BM14" s="68"/>
+      <c r="BK14" s="66"/>
+      <c r="BL14" s="66"/>
+      <c r="BM14" s="67"/>
     </row>
     <row r="15" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A15" s="72">
+      <c r="A15" s="71">
         <v>9</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="84" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="74" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="75"/>
-      <c r="AB15" s="75"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="66" t="s">
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="78"/>
+      <c r="AK15" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="67"/>
-      <c r="AM15" s="67"/>
-      <c r="AN15" s="67"/>
-      <c r="AO15" s="67"/>
-      <c r="AP15" s="67"/>
-      <c r="AQ15" s="67"/>
-      <c r="AR15" s="67"/>
-      <c r="AS15" s="67"/>
-      <c r="AT15" s="67"/>
-      <c r="AU15" s="67"/>
-      <c r="AV15" s="67"/>
-      <c r="AW15" s="67"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="80" t="s">
+      <c r="AL15" s="66"/>
+      <c r="AM15" s="66"/>
+      <c r="AN15" s="66"/>
+      <c r="AO15" s="66"/>
+      <c r="AP15" s="66"/>
+      <c r="AQ15" s="66"/>
+      <c r="AR15" s="66"/>
+      <c r="AS15" s="66"/>
+      <c r="AT15" s="66"/>
+      <c r="AU15" s="66"/>
+      <c r="AV15" s="66"/>
+      <c r="AW15" s="66"/>
+      <c r="AX15" s="67"/>
+      <c r="AY15" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ15" s="80"/>
-      <c r="BA15" s="80"/>
-      <c r="BB15" s="80"/>
-      <c r="BC15" s="80"/>
-      <c r="BD15" s="80"/>
-      <c r="BE15" s="66" t="s">
+      <c r="AZ15" s="64"/>
+      <c r="BA15" s="64"/>
+      <c r="BB15" s="64"/>
+      <c r="BC15" s="64"/>
+      <c r="BD15" s="64"/>
+      <c r="BE15" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF15" s="67"/>
-      <c r="BG15" s="67"/>
-      <c r="BH15" s="67"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="69">
+      <c r="BF15" s="66"/>
+      <c r="BG15" s="66"/>
+      <c r="BH15" s="66"/>
+      <c r="BI15" s="67"/>
+      <c r="BJ15" s="68">
         <v>45441</v>
       </c>
-      <c r="BK15" s="70"/>
-      <c r="BL15" s="70"/>
-      <c r="BM15" s="71"/>
+      <c r="BK15" s="69"/>
+      <c r="BL15" s="69"/>
+      <c r="BM15" s="70"/>
     </row>
     <row r="16" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A16" s="72">
+      <c r="A16" s="71">
         <v>10</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="84" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="74" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="66" t="s">
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
+      <c r="AA16" s="77"/>
+      <c r="AB16" s="77"/>
+      <c r="AC16" s="77"/>
+      <c r="AD16" s="77"/>
+      <c r="AE16" s="77"/>
+      <c r="AF16" s="77"/>
+      <c r="AG16" s="77"/>
+      <c r="AH16" s="77"/>
+      <c r="AI16" s="77"/>
+      <c r="AJ16" s="78"/>
+      <c r="AK16" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="67"/>
-      <c r="AM16" s="67"/>
-      <c r="AN16" s="67"/>
-      <c r="AO16" s="67"/>
-      <c r="AP16" s="67"/>
-      <c r="AQ16" s="67"/>
-      <c r="AR16" s="67"/>
-      <c r="AS16" s="67"/>
-      <c r="AT16" s="67"/>
-      <c r="AU16" s="67"/>
-      <c r="AV16" s="67"/>
-      <c r="AW16" s="67"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="80" t="s">
+      <c r="AL16" s="66"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="66"/>
+      <c r="AO16" s="66"/>
+      <c r="AP16" s="66"/>
+      <c r="AQ16" s="66"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="67"/>
+      <c r="AY16" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ16" s="80"/>
-      <c r="BA16" s="80"/>
-      <c r="BB16" s="80"/>
-      <c r="BC16" s="80"/>
-      <c r="BD16" s="80"/>
-      <c r="BE16" s="66" t="s">
+      <c r="AZ16" s="64"/>
+      <c r="BA16" s="64"/>
+      <c r="BB16" s="64"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="64"/>
+      <c r="BE16" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF16" s="67"/>
-      <c r="BG16" s="67"/>
-      <c r="BH16" s="67"/>
-      <c r="BI16" s="68"/>
-      <c r="BJ16" s="69">
+      <c r="BF16" s="66"/>
+      <c r="BG16" s="66"/>
+      <c r="BH16" s="66"/>
+      <c r="BI16" s="67"/>
+      <c r="BJ16" s="68">
         <v>45441</v>
       </c>
-      <c r="BK16" s="67"/>
-      <c r="BL16" s="67"/>
-      <c r="BM16" s="68"/>
+      <c r="BK16" s="66"/>
+      <c r="BL16" s="66"/>
+      <c r="BM16" s="67"/>
     </row>
     <row r="17" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A17" s="72">
+      <c r="A17" s="71">
         <v>11</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="84" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="74" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="66" t="s">
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="77"/>
+      <c r="AF17" s="77"/>
+      <c r="AG17" s="77"/>
+      <c r="AH17" s="77"/>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="AL17" s="67"/>
-      <c r="AM17" s="67"/>
-      <c r="AN17" s="67"/>
-      <c r="AO17" s="67"/>
-      <c r="AP17" s="67"/>
-      <c r="AQ17" s="67"/>
-      <c r="AR17" s="67"/>
-      <c r="AS17" s="67"/>
-      <c r="AT17" s="67"/>
-      <c r="AU17" s="67"/>
-      <c r="AV17" s="67"/>
-      <c r="AW17" s="67"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="80" t="s">
+      <c r="AL17" s="66"/>
+      <c r="AM17" s="66"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="66"/>
+      <c r="AT17" s="66"/>
+      <c r="AU17" s="66"/>
+      <c r="AV17" s="66"/>
+      <c r="AW17" s="66"/>
+      <c r="AX17" s="67"/>
+      <c r="AY17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ17" s="80"/>
-      <c r="BA17" s="80"/>
-      <c r="BB17" s="80"/>
-      <c r="BC17" s="80"/>
-      <c r="BD17" s="80"/>
-      <c r="BE17" s="66" t="s">
+      <c r="AZ17" s="64"/>
+      <c r="BA17" s="64"/>
+      <c r="BB17" s="64"/>
+      <c r="BC17" s="64"/>
+      <c r="BD17" s="64"/>
+      <c r="BE17" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF17" s="67"/>
-      <c r="BG17" s="67"/>
-      <c r="BH17" s="67"/>
-      <c r="BI17" s="68"/>
-      <c r="BJ17" s="69">
+      <c r="BF17" s="66"/>
+      <c r="BG17" s="66"/>
+      <c r="BH17" s="66"/>
+      <c r="BI17" s="67"/>
+      <c r="BJ17" s="68">
         <v>45441</v>
       </c>
-      <c r="BK17" s="70"/>
-      <c r="BL17" s="70"/>
-      <c r="BM17" s="71"/>
+      <c r="BK17" s="69"/>
+      <c r="BL17" s="69"/>
+      <c r="BM17" s="70"/>
     </row>
     <row r="18" spans="1:65">
-      <c r="A18" s="72">
+      <c r="A18" s="71">
         <v>5</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="66" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="66" t="s">
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="74" t="s">
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="77" t="s">
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77"/>
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77"/>
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="AL18" s="78"/>
-      <c r="AM18" s="78"/>
-      <c r="AN18" s="78"/>
-      <c r="AO18" s="78"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
-      <c r="AS18" s="78"/>
-      <c r="AT18" s="78"/>
-      <c r="AU18" s="78"/>
-      <c r="AV18" s="78"/>
-      <c r="AW18" s="78"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="80" t="s">
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="121"/>
+      <c r="AN18" s="121"/>
+      <c r="AO18" s="121"/>
+      <c r="AP18" s="121"/>
+      <c r="AQ18" s="121"/>
+      <c r="AR18" s="121"/>
+      <c r="AS18" s="121"/>
+      <c r="AT18" s="121"/>
+      <c r="AU18" s="121"/>
+      <c r="AV18" s="121"/>
+      <c r="AW18" s="121"/>
+      <c r="AX18" s="122"/>
+      <c r="AY18" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AZ18" s="72"/>
-      <c r="BA18" s="72"/>
-      <c r="BB18" s="72"/>
-      <c r="BC18" s="72"/>
-      <c r="BD18" s="73"/>
-      <c r="BE18" s="66" t="s">
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="71"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="119"/>
+      <c r="BE18" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="67"/>
-      <c r="BG18" s="67"/>
-      <c r="BH18" s="67"/>
-      <c r="BI18" s="68"/>
-      <c r="BJ18" s="69">
+      <c r="BF18" s="66"/>
+      <c r="BG18" s="66"/>
+      <c r="BH18" s="66"/>
+      <c r="BI18" s="67"/>
+      <c r="BJ18" s="68">
         <v>45441</v>
       </c>
-      <c r="BK18" s="67"/>
-      <c r="BL18" s="67"/>
-      <c r="BM18" s="68"/>
+      <c r="BK18" s="66"/>
+      <c r="BL18" s="66"/>
+      <c r="BM18" s="67"/>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" s="34"/>
@@ -4217,6 +4304,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="L18:R18"/>
+    <mergeCell ref="S18:AJ18"/>
+    <mergeCell ref="AK18:AX18"/>
+    <mergeCell ref="AY18:BD18"/>
+    <mergeCell ref="BE18:BI18"/>
+    <mergeCell ref="BJ18:BM18"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BE8:BI8"/>
+    <mergeCell ref="BJ8:BM8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="S9:AJ9"/>
+    <mergeCell ref="AK9:AX9"/>
+    <mergeCell ref="AY9:BD9"/>
+    <mergeCell ref="BE9:BI9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="S8:AJ8"/>
+    <mergeCell ref="AK8:AX8"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:AJ14"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BJ14:BM14"/>
     <mergeCell ref="AY17:BD17"/>
     <mergeCell ref="BE17:BI17"/>
     <mergeCell ref="BJ17:BM17"/>
@@ -4241,95 +4417,6 @@
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="S15:AJ15"/>
     <mergeCell ref="AK15:AX15"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="BE13:BI13"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:AJ14"/>
-    <mergeCell ref="AK14:AX14"/>
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="BE14:BI14"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BE8:BI8"/>
-    <mergeCell ref="BJ8:BM8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="S9:AJ9"/>
-    <mergeCell ref="AK9:AX9"/>
-    <mergeCell ref="AY9:BD9"/>
-    <mergeCell ref="BE9:BI9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="S8:AJ8"/>
-    <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="L18:R18"/>
-    <mergeCell ref="S18:AJ18"/>
-    <mergeCell ref="AK18:AX18"/>
-    <mergeCell ref="AY18:BD18"/>
-    <mergeCell ref="BE18:BI18"/>
-    <mergeCell ref="BJ18:BM18"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4339,10 +4426,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B3" sqref="B3:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
@@ -4439,54 +4526,290 @@
         <v>69</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="M4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="N4" s="42" t="s">
         <v>78</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>79</v>
       </c>
       <c r="O4" s="42" t="s">
         <v>55</v>
       </c>
       <c r="P4" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18">
+      <c r="B5" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18">
+      <c r="B6" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18">
+      <c r="B7" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="R7" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18">
+      <c r="B8" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="43" t="s">
         <v>56</v>
       </c>
     </row>

--- a/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報更新.xlsx
+++ b/DOC/結合テスト/EMSM_結合試験項目仕様書＿社員情報更新.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81809\git\emsm\DOC\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pleiades\pleiades\workspace\emsm\DOC\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9B1FD-975C-424E-82B3-9E1B23C1DD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C647EA-3EA5-4AEC-A325-93318434F0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11865" yWindow="330" windowWidth="20070" windowHeight="15330" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -1332,11 +1332,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,13 +1370,13 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,13 +1391,70 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1427,91 +1508,10 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{B1807F42-9FF7-4250-83E6-08FCFA41AC9E}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_0.業務フロー表紙" xfId="2" xr:uid="{2D303322-CCD0-40E2-B021-1227DA5DE9FA}"/>
     <cellStyle name="標準_全店拡大－原票" xfId="1" xr:uid="{883413EB-8AE9-4336-8F77-E40A9051CE78}"/>
   </cellStyles>
@@ -1531,6 +1531,137 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9A02570-50BF-0B2A-3A3A-D9A2D6888832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057524" y="4981574"/>
+          <a:ext cx="6200775" cy="3038475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -40341"/>
+            <a:gd name="adj2" fmla="val -53801"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>観点：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録項目は新規登録と同じにテスト。他の項目は</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①必須チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②入力タイプチェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　例えば、数字項目なら日本語不可。など</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>③長さチェック。　超えたらエラーなど。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>④登録（新規</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新）　画面入力とテーブルに登録されたデータと一致確認。</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:br>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1797,12 +1928,12 @@
       <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.19921875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="21" width="5.19921875" style="11"/>
-    <col min="22" max="22" width="5.19921875" style="15"/>
-    <col min="23" max="23" width="5.19921875" style="11"/>
-    <col min="24" max="16384" width="5.19921875" style="15"/>
+    <col min="1" max="21" width="5.25" style="11"/>
+    <col min="22" max="22" width="5.25" style="15"/>
+    <col min="23" max="23" width="5.25" style="11"/>
+    <col min="24" max="16384" width="5.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="4" customFormat="1">
@@ -1880,7 +2011,7 @@
       <c r="A13" s="5"/>
       <c r="X13" s="7"/>
     </row>
-    <row r="14" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="14" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1936,7 +2067,7 @@
       <c r="R16" s="52"/>
       <c r="X16" s="7"/>
     </row>
-    <row r="17" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="17" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A17" s="5"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1954,7 +2085,7 @@
       <c r="R17" s="8"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="18" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1974,7 +2105,7 @@
       <c r="R18" s="55"/>
       <c r="X18" s="7"/>
     </row>
-    <row r="19" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="19" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1994,7 +2125,7 @@
       <c r="R19" s="58"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="20" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -2012,7 +2143,7 @@
       <c r="R20" s="61"/>
       <c r="X20" s="7"/>
     </row>
-    <row r="21" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="21" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A21" s="5"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -2050,7 +2181,7 @@
       <c r="R22" s="63"/>
       <c r="X22" s="7"/>
     </row>
-    <row r="23" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -2070,7 +2201,7 @@
       <c r="R23" s="47"/>
       <c r="X23" s="7"/>
     </row>
-    <row r="24" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
@@ -2088,7 +2219,7 @@
       <c r="R24" s="50"/>
       <c r="X24" s="7"/>
     </row>
-    <row r="25" spans="1:24" s="4" customFormat="1" ht="17.399999999999999">
+    <row r="25" spans="1:24" s="4" customFormat="1" ht="16.5">
       <c r="A25" s="5"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -2106,7 +2237,7 @@
       <c r="R25" s="8"/>
       <c r="X25" s="7"/>
     </row>
-    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.2">
+    <row r="26" spans="1:24" s="4" customFormat="1" ht="13.5">
       <c r="A26" s="5"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -2300,14 +2431,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.19921875" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="16" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="58.59765625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="16" customWidth="1"/>
-    <col min="6" max="16384" width="8.19921875" style="16"/>
+    <col min="3" max="3" width="58.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="16"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
@@ -2428,16 +2559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="61" width="2.09765625" style="26" customWidth="1"/>
-    <col min="62" max="65" width="2.3984375" style="26" customWidth="1"/>
-    <col min="66" max="66" width="2.09765625" style="26" customWidth="1"/>
-    <col min="67" max="16384" width="9.59765625" style="26"/>
+    <col min="1" max="61" width="2.125" style="26" customWidth="1"/>
+    <col min="62" max="65" width="2.375" style="26" customWidth="1"/>
+    <col min="66" max="66" width="2.125" style="26" customWidth="1"/>
+    <col min="67" max="16384" width="9.625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
@@ -2508,1196 +2639,1196 @@
       <c r="BM1" s="30"/>
     </row>
     <row r="2" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
       <c r="BM2" s="30"/>
     </row>
     <row r="3" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
       <c r="BM3" s="31"/>
     </row>
     <row r="4" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="84" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86" t="s">
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="89" t="s">
+      <c r="P4" s="114"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="115"/>
+      <c r="U4" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="90"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="90"/>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="92" t="s">
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="117"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="117"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="95">
+      <c r="AX4" s="120"/>
+      <c r="AY4" s="121"/>
+      <c r="AZ4" s="122">
         <v>45096</v>
       </c>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="92" t="s">
+      <c r="BA4" s="117"/>
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="BG4" s="93"/>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="95" t="s">
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="121"/>
+      <c r="BI4" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="90"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="117"/>
+      <c r="BL4" s="117"/>
       <c r="BM4" s="32"/>
     </row>
     <row r="5" spans="1:65" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="96" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="98"/>
+      <c r="O5" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="102"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="102"/>
-      <c r="AA5" s="102"/>
-      <c r="AB5" s="102"/>
-      <c r="AC5" s="102"/>
-      <c r="AD5" s="102"/>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="102"/>
-      <c r="AI5" s="102"/>
-      <c r="AJ5" s="102"/>
-      <c r="AK5" s="102"/>
-      <c r="AL5" s="102"/>
-      <c r="AM5" s="102"/>
-      <c r="AN5" s="102"/>
-      <c r="AO5" s="102"/>
-      <c r="AP5" s="102"/>
-      <c r="AQ5" s="102"/>
-      <c r="AR5" s="102"/>
-      <c r="AS5" s="102"/>
-      <c r="AT5" s="102"/>
-      <c r="AU5" s="102"/>
-      <c r="AV5" s="103"/>
-      <c r="AW5" s="96" t="s">
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="96"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="100"/>
+      <c r="W5" s="100"/>
+      <c r="X5" s="100"/>
+      <c r="Y5" s="100"/>
+      <c r="Z5" s="100"/>
+      <c r="AA5" s="100"/>
+      <c r="AB5" s="100"/>
+      <c r="AC5" s="100"/>
+      <c r="AD5" s="100"/>
+      <c r="AE5" s="100"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
+      <c r="AK5" s="100"/>
+      <c r="AL5" s="100"/>
+      <c r="AM5" s="100"/>
+      <c r="AN5" s="100"/>
+      <c r="AO5" s="100"/>
+      <c r="AP5" s="100"/>
+      <c r="AQ5" s="100"/>
+      <c r="AR5" s="100"/>
+      <c r="AS5" s="100"/>
+      <c r="AT5" s="100"/>
+      <c r="AU5" s="100"/>
+      <c r="AV5" s="101"/>
+      <c r="AW5" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="97"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="96" t="s">
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="96"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="BG5" s="97"/>
-      <c r="BH5" s="98"/>
-      <c r="BI5" s="97"/>
-      <c r="BJ5" s="102"/>
-      <c r="BK5" s="102"/>
-      <c r="BL5" s="102"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="95"/>
+      <c r="BJ5" s="100"/>
+      <c r="BK5" s="100"/>
+      <c r="BL5" s="100"/>
       <c r="BM5" s="25"/>
     </row>
     <row r="7" spans="1:65" s="33" customFormat="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107" t="s">
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="107"/>
-      <c r="R7" s="107"/>
-      <c r="S7" s="104" t="s">
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="105"/>
-      <c r="U7" s="105"/>
-      <c r="V7" s="105"/>
-      <c r="W7" s="105"/>
-      <c r="X7" s="105"/>
-      <c r="Y7" s="105"/>
-      <c r="Z7" s="105"/>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
-      <c r="AF7" s="105"/>
-      <c r="AG7" s="105"/>
-      <c r="AH7" s="105"/>
-      <c r="AI7" s="105"/>
-      <c r="AJ7" s="106"/>
-      <c r="AK7" s="104" t="s">
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Y7" s="103"/>
+      <c r="Z7" s="103"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="103"/>
+      <c r="AI7" s="103"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AL7" s="105"/>
-      <c r="AM7" s="105"/>
-      <c r="AN7" s="105"/>
-      <c r="AO7" s="105"/>
-      <c r="AP7" s="105"/>
-      <c r="AQ7" s="105"/>
-      <c r="AR7" s="105"/>
-      <c r="AS7" s="105"/>
-      <c r="AT7" s="105"/>
-      <c r="AU7" s="105"/>
-      <c r="AV7" s="105"/>
-      <c r="AW7" s="105"/>
-      <c r="AX7" s="106"/>
-      <c r="AY7" s="104" t="s">
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="103"/>
+      <c r="AO7" s="103"/>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="103"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="AZ7" s="105"/>
-      <c r="BA7" s="105"/>
-      <c r="BB7" s="105"/>
-      <c r="BC7" s="105"/>
-      <c r="BD7" s="106"/>
-      <c r="BE7" s="104" t="s">
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="103"/>
+      <c r="BC7" s="103"/>
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="BF7" s="105"/>
-      <c r="BG7" s="105"/>
-      <c r="BH7" s="105"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="104" t="s">
+      <c r="BF7" s="103"/>
+      <c r="BG7" s="103"/>
+      <c r="BH7" s="103"/>
+      <c r="BI7" s="104"/>
+      <c r="BJ7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="BK7" s="105"/>
-      <c r="BL7" s="105"/>
-      <c r="BM7" s="106"/>
+      <c r="BK7" s="103"/>
+      <c r="BL7" s="103"/>
+      <c r="BM7" s="104"/>
     </row>
     <row r="8" spans="1:65" ht="42" customHeight="1">
-      <c r="A8" s="111">
+      <c r="A8" s="86">
         <v>2</v>
       </c>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="116"/>
-      <c r="Q8" s="116"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="118" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="92"/>
+      <c r="S8" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="65" t="s">
+      <c r="T8" s="68"/>
+      <c r="U8" s="68"/>
+      <c r="V8" s="68"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="68"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="68"/>
+      <c r="AC8" s="68"/>
+      <c r="AD8" s="68"/>
+      <c r="AE8" s="68"/>
+      <c r="AF8" s="68"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="108" t="s">
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="AZ8" s="109"/>
-      <c r="BA8" s="109"/>
-      <c r="BB8" s="109"/>
-      <c r="BC8" s="109"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="65" t="s">
+      <c r="AZ8" s="78"/>
+      <c r="BA8" s="78"/>
+      <c r="BB8" s="78"/>
+      <c r="BC8" s="78"/>
+      <c r="BD8" s="79"/>
+      <c r="BE8" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="68">
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="75"/>
+      <c r="BJ8" s="76">
         <v>45441</v>
       </c>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="67"/>
-    </row>
-    <row r="9" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A9" s="71">
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="75"/>
+    </row>
+    <row r="9" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A9" s="64">
         <v>3</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="76" t="s">
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="77"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
-      <c r="AJ9" s="78"/>
-      <c r="AK9" s="65" t="s">
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="68"/>
+      <c r="Y9" s="68"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="68"/>
+      <c r="AC9" s="68"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="69"/>
+      <c r="AK9" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="66"/>
-      <c r="AT9" s="66"/>
-      <c r="AU9" s="66"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="64" t="s">
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="74"/>
+      <c r="AP9" s="74"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="74"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="64"/>
-      <c r="BE9" s="65" t="s">
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF9" s="66"/>
-      <c r="BG9" s="66"/>
-      <c r="BH9" s="66"/>
-      <c r="BI9" s="67"/>
-      <c r="BJ9" s="68">
+      <c r="BF9" s="74"/>
+      <c r="BG9" s="74"/>
+      <c r="BH9" s="74"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="76">
         <v>45441</v>
       </c>
-      <c r="BK9" s="69"/>
-      <c r="BL9" s="69"/>
-      <c r="BM9" s="70"/>
-    </row>
-    <row r="10" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A10" s="71">
+      <c r="BK9" s="84"/>
+      <c r="BL9" s="84"/>
+      <c r="BM9" s="85"/>
+    </row>
+    <row r="10" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A10" s="64">
         <v>4</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="78"/>
-      <c r="AK10" s="65" t="s">
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="68"/>
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="68"/>
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="68"/>
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="67"/>
-      <c r="AY10" s="64" t="s">
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
-      <c r="BB10" s="64"/>
-      <c r="BC10" s="64"/>
-      <c r="BD10" s="64"/>
-      <c r="BE10" s="65" t="s">
+      <c r="AZ10" s="73"/>
+      <c r="BA10" s="73"/>
+      <c r="BB10" s="73"/>
+      <c r="BC10" s="73"/>
+      <c r="BD10" s="73"/>
+      <c r="BE10" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="67"/>
-      <c r="BJ10" s="68">
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="76">
         <v>45441</v>
       </c>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="67"/>
-    </row>
-    <row r="11" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A11" s="71">
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="75"/>
+    </row>
+    <row r="11" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A11" s="64">
         <v>5</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="76" t="s">
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="65" t="s">
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="68"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="68"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="69"/>
+      <c r="AK11" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL11" s="66"/>
-      <c r="AM11" s="66"/>
-      <c r="AN11" s="66"/>
-      <c r="AO11" s="66"/>
-      <c r="AP11" s="66"/>
-      <c r="AQ11" s="66"/>
-      <c r="AR11" s="66"/>
-      <c r="AS11" s="66"/>
-      <c r="AT11" s="66"/>
-      <c r="AU11" s="66"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
-      <c r="AX11" s="67"/>
-      <c r="AY11" s="64" t="s">
+      <c r="AL11" s="74"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="75"/>
+      <c r="AY11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
-      <c r="BB11" s="64"/>
-      <c r="BC11" s="64"/>
-      <c r="BD11" s="64"/>
-      <c r="BE11" s="65" t="s">
+      <c r="AZ11" s="73"/>
+      <c r="BA11" s="73"/>
+      <c r="BB11" s="73"/>
+      <c r="BC11" s="73"/>
+      <c r="BD11" s="73"/>
+      <c r="BE11" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF11" s="66"/>
-      <c r="BG11" s="66"/>
-      <c r="BH11" s="66"/>
-      <c r="BI11" s="67"/>
-      <c r="BJ11" s="68">
+      <c r="BF11" s="74"/>
+      <c r="BG11" s="74"/>
+      <c r="BH11" s="74"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="76">
         <v>45441</v>
       </c>
-      <c r="BK11" s="69"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="70"/>
-    </row>
-    <row r="12" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A12" s="71">
+      <c r="BK11" s="84"/>
+      <c r="BL11" s="84"/>
+      <c r="BM11" s="85"/>
+    </row>
+    <row r="12" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A12" s="64">
         <v>6</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="76" t="s">
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="78"/>
-      <c r="AK12" s="65" t="s">
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="68"/>
+      <c r="AI12" s="68"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="67"/>
-      <c r="AY12" s="64" t="s">
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="75"/>
+      <c r="AY12" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
-      <c r="BB12" s="64"/>
-      <c r="BC12" s="64"/>
-      <c r="BD12" s="64"/>
-      <c r="BE12" s="65" t="s">
+      <c r="AZ12" s="73"/>
+      <c r="BA12" s="73"/>
+      <c r="BB12" s="73"/>
+      <c r="BC12" s="73"/>
+      <c r="BD12" s="73"/>
+      <c r="BE12" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="67"/>
-      <c r="BJ12" s="68">
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="76">
         <v>45441</v>
       </c>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="67"/>
-    </row>
-    <row r="13" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A13" s="71">
+      <c r="BK12" s="74"/>
+      <c r="BL12" s="74"/>
+      <c r="BM12" s="75"/>
+    </row>
+    <row r="13" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A13" s="64">
         <v>7</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="76" t="s">
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="S13" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="77"/>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="77"/>
-      <c r="AC13" s="77"/>
-      <c r="AD13" s="77"/>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-      <c r="AJ13" s="78"/>
-      <c r="AK13" s="65" t="s">
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="67"/>
-      <c r="AY13" s="64" t="s">
+      <c r="AL13" s="74"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="75"/>
+      <c r="AY13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
-      <c r="BB13" s="64"/>
-      <c r="BC13" s="64"/>
-      <c r="BD13" s="64"/>
-      <c r="BE13" s="65" t="s">
+      <c r="AZ13" s="73"/>
+      <c r="BA13" s="73"/>
+      <c r="BB13" s="73"/>
+      <c r="BC13" s="73"/>
+      <c r="BD13" s="73"/>
+      <c r="BE13" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF13" s="66"/>
-      <c r="BG13" s="66"/>
-      <c r="BH13" s="66"/>
-      <c r="BI13" s="67"/>
-      <c r="BJ13" s="68">
+      <c r="BF13" s="74"/>
+      <c r="BG13" s="74"/>
+      <c r="BH13" s="74"/>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="76">
         <v>45441</v>
       </c>
-      <c r="BK13" s="69"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="70"/>
-    </row>
-    <row r="14" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A14" s="71">
+      <c r="BK13" s="84"/>
+      <c r="BL13" s="84"/>
+      <c r="BM13" s="85"/>
+    </row>
+    <row r="14" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A14" s="64">
         <v>8</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76" t="s">
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="83"/>
+      <c r="S14" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="77"/>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="77"/>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="77"/>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="77"/>
-      <c r="AI14" s="77"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="65" t="s">
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="67"/>
-      <c r="AY14" s="64" t="s">
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
-      <c r="BB14" s="64"/>
-      <c r="BC14" s="64"/>
-      <c r="BD14" s="64"/>
-      <c r="BE14" s="65" t="s">
+      <c r="AZ14" s="73"/>
+      <c r="BA14" s="73"/>
+      <c r="BB14" s="73"/>
+      <c r="BC14" s="73"/>
+      <c r="BD14" s="73"/>
+      <c r="BE14" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF14" s="66"/>
-      <c r="BG14" s="66"/>
-      <c r="BH14" s="66"/>
-      <c r="BI14" s="67"/>
-      <c r="BJ14" s="68">
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="76">
         <v>45441</v>
       </c>
-      <c r="BK14" s="66"/>
-      <c r="BL14" s="66"/>
-      <c r="BM14" s="67"/>
-    </row>
-    <row r="15" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A15" s="71">
+      <c r="BK14" s="74"/>
+      <c r="BL14" s="74"/>
+      <c r="BM14" s="75"/>
+    </row>
+    <row r="15" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A15" s="64">
         <v>9</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="76" t="s">
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="83"/>
+      <c r="S15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="77"/>
-      <c r="AD15" s="77"/>
-      <c r="AE15" s="77"/>
-      <c r="AF15" s="77"/>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-      <c r="AJ15" s="78"/>
-      <c r="AK15" s="65" t="s">
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="69"/>
+      <c r="AK15" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="67"/>
-      <c r="AY15" s="64" t="s">
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="74"/>
+      <c r="AP15" s="74"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="74"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ15" s="64"/>
-      <c r="BA15" s="64"/>
-      <c r="BB15" s="64"/>
-      <c r="BC15" s="64"/>
-      <c r="BD15" s="64"/>
-      <c r="BE15" s="65" t="s">
+      <c r="AZ15" s="73"/>
+      <c r="BA15" s="73"/>
+      <c r="BB15" s="73"/>
+      <c r="BC15" s="73"/>
+      <c r="BD15" s="73"/>
+      <c r="BE15" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF15" s="66"/>
-      <c r="BG15" s="66"/>
-      <c r="BH15" s="66"/>
-      <c r="BI15" s="67"/>
-      <c r="BJ15" s="68">
+      <c r="BF15" s="74"/>
+      <c r="BG15" s="74"/>
+      <c r="BH15" s="74"/>
+      <c r="BI15" s="75"/>
+      <c r="BJ15" s="76">
         <v>45441</v>
       </c>
-      <c r="BK15" s="69"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="70"/>
-    </row>
-    <row r="16" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A16" s="71">
+      <c r="BK15" s="84"/>
+      <c r="BL15" s="84"/>
+      <c r="BM15" s="85"/>
+    </row>
+    <row r="16" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A16" s="64">
         <v>10</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="76" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
-      <c r="AI16" s="77"/>
-      <c r="AJ16" s="78"/>
-      <c r="AK16" s="65" t="s">
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="69"/>
+      <c r="AK16" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="67"/>
-      <c r="AY16" s="64" t="s">
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="74"/>
+      <c r="AN16" s="74"/>
+      <c r="AO16" s="74"/>
+      <c r="AP16" s="74"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="74"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="64"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="65" t="s">
+      <c r="AZ16" s="73"/>
+      <c r="BA16" s="73"/>
+      <c r="BB16" s="73"/>
+      <c r="BC16" s="73"/>
+      <c r="BD16" s="73"/>
+      <c r="BE16" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF16" s="66"/>
-      <c r="BG16" s="66"/>
-      <c r="BH16" s="66"/>
-      <c r="BI16" s="67"/>
-      <c r="BJ16" s="68">
+      <c r="BF16" s="74"/>
+      <c r="BG16" s="74"/>
+      <c r="BH16" s="74"/>
+      <c r="BI16" s="75"/>
+      <c r="BJ16" s="76">
         <v>45441</v>
       </c>
-      <c r="BK16" s="66"/>
-      <c r="BL16" s="66"/>
-      <c r="BM16" s="67"/>
-    </row>
-    <row r="17" spans="1:65" ht="26.4" customHeight="1">
-      <c r="A17" s="71">
+      <c r="BK16" s="74"/>
+      <c r="BL16" s="74"/>
+      <c r="BM16" s="75"/>
+    </row>
+    <row r="17" spans="1:65" ht="26.45" customHeight="1">
+      <c r="A17" s="64">
         <v>11</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="76" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="65" t="s">
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="69"/>
+      <c r="AK17" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="67"/>
-      <c r="AY17" s="64" t="s">
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="75"/>
+      <c r="AY17" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ17" s="64"/>
-      <c r="BA17" s="64"/>
-      <c r="BB17" s="64"/>
-      <c r="BC17" s="64"/>
-      <c r="BD17" s="64"/>
-      <c r="BE17" s="65" t="s">
+      <c r="AZ17" s="73"/>
+      <c r="BA17" s="73"/>
+      <c r="BB17" s="73"/>
+      <c r="BC17" s="73"/>
+      <c r="BD17" s="73"/>
+      <c r="BE17" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF17" s="66"/>
-      <c r="BG17" s="66"/>
-      <c r="BH17" s="66"/>
-      <c r="BI17" s="67"/>
-      <c r="BJ17" s="68">
+      <c r="BF17" s="74"/>
+      <c r="BG17" s="74"/>
+      <c r="BH17" s="74"/>
+      <c r="BI17" s="75"/>
+      <c r="BJ17" s="76">
         <v>45441</v>
       </c>
-      <c r="BK17" s="69"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="70"/>
+      <c r="BK17" s="84"/>
+      <c r="BL17" s="84"/>
+      <c r="BM17" s="85"/>
     </row>
     <row r="18" spans="1:65">
-      <c r="A18" s="71">
+      <c r="A18" s="64">
         <v>5</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="65" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="65" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="76" t="s">
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77"/>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77"/>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="78"/>
-      <c r="AK18" s="120" t="s">
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="121"/>
-      <c r="AN18" s="121"/>
-      <c r="AO18" s="121"/>
-      <c r="AP18" s="121"/>
-      <c r="AQ18" s="121"/>
-      <c r="AR18" s="121"/>
-      <c r="AS18" s="121"/>
-      <c r="AT18" s="121"/>
-      <c r="AU18" s="121"/>
-      <c r="AV18" s="121"/>
-      <c r="AW18" s="121"/>
-      <c r="AX18" s="122"/>
-      <c r="AY18" s="64" t="s">
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="71"/>
+      <c r="AO18" s="71"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="72"/>
+      <c r="AY18" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="119"/>
-      <c r="BE18" s="65" t="s">
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="65"/>
+      <c r="BE18" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="BF18" s="66"/>
-      <c r="BG18" s="66"/>
-      <c r="BH18" s="66"/>
-      <c r="BI18" s="67"/>
-      <c r="BJ18" s="68">
+      <c r="BF18" s="74"/>
+      <c r="BG18" s="74"/>
+      <c r="BH18" s="74"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="76">
         <v>45441</v>
       </c>
-      <c r="BK18" s="66"/>
-      <c r="BL18" s="66"/>
-      <c r="BM18" s="67"/>
+      <c r="BK18" s="74"/>
+      <c r="BL18" s="74"/>
+      <c r="BM18" s="75"/>
     </row>
     <row r="19" spans="1:65">
       <c r="A19" s="34"/>
@@ -4304,6 +4435,95 @@
     </row>
   </sheetData>
   <mergeCells count="113">
+    <mergeCell ref="AY16:BD16"/>
+    <mergeCell ref="BE16:BI16"/>
+    <mergeCell ref="BJ16:BM16"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="S15:AJ15"/>
+    <mergeCell ref="AK15:AX15"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="S14:AJ14"/>
+    <mergeCell ref="AK14:AX14"/>
+    <mergeCell ref="AY14:BD14"/>
+    <mergeCell ref="BE14:BI14"/>
+    <mergeCell ref="BJ14:BM14"/>
+    <mergeCell ref="AY17:BD17"/>
+    <mergeCell ref="BE17:BI17"/>
+    <mergeCell ref="BJ17:BM17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="S17:AJ17"/>
+    <mergeCell ref="AK17:AX17"/>
+    <mergeCell ref="AY15:BD15"/>
+    <mergeCell ref="BE15:BI15"/>
+    <mergeCell ref="BJ15:BM15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="S16:AJ16"/>
+    <mergeCell ref="AK16:AX16"/>
+    <mergeCell ref="AY12:BD12"/>
+    <mergeCell ref="BE12:BI12"/>
+    <mergeCell ref="BJ12:BM12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:AJ13"/>
+    <mergeCell ref="AK13:AX13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:AJ12"/>
+    <mergeCell ref="AK12:AX12"/>
+    <mergeCell ref="AY13:BD13"/>
+    <mergeCell ref="BE13:BI13"/>
+    <mergeCell ref="BJ13:BM13"/>
+    <mergeCell ref="AY10:BD10"/>
+    <mergeCell ref="BE10:BI10"/>
+    <mergeCell ref="BJ10:BM10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="S11:AJ11"/>
+    <mergeCell ref="AK11:AX11"/>
+    <mergeCell ref="AY11:BD11"/>
+    <mergeCell ref="BE11:BI11"/>
+    <mergeCell ref="BJ11:BM11"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:AJ10"/>
+    <mergeCell ref="AK10:AX10"/>
+    <mergeCell ref="A2:Z3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="U4:AV4"/>
+    <mergeCell ref="AW4:AY4"/>
+    <mergeCell ref="AZ4:BE4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BL4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="O5:T5"/>
+    <mergeCell ref="U5:AV5"/>
+    <mergeCell ref="AW5:AY5"/>
+    <mergeCell ref="AZ5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BL5"/>
+    <mergeCell ref="AY7:BD7"/>
+    <mergeCell ref="BE7:BI7"/>
+    <mergeCell ref="BJ7:BM7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:K7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="S7:AJ7"/>
+    <mergeCell ref="AK7:AX7"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="L18:R18"/>
@@ -4328,99 +4548,11 @@
     <mergeCell ref="L8:R8"/>
     <mergeCell ref="S8:AJ8"/>
     <mergeCell ref="AK8:AX8"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:N5"/>
-    <mergeCell ref="O5:T5"/>
-    <mergeCell ref="U5:AV5"/>
-    <mergeCell ref="AW5:AY5"/>
-    <mergeCell ref="AZ5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BL5"/>
-    <mergeCell ref="AY7:BD7"/>
-    <mergeCell ref="BE7:BI7"/>
-    <mergeCell ref="BJ7:BM7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:K7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="S7:AJ7"/>
-    <mergeCell ref="AK7:AX7"/>
-    <mergeCell ref="A2:Z3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:N4"/>
-    <mergeCell ref="O4:T4"/>
-    <mergeCell ref="U4:AV4"/>
-    <mergeCell ref="AW4:AY4"/>
-    <mergeCell ref="AZ4:BE4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BL4"/>
-    <mergeCell ref="AY10:BD10"/>
-    <mergeCell ref="BE10:BI10"/>
-    <mergeCell ref="BJ10:BM10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="S11:AJ11"/>
-    <mergeCell ref="AK11:AX11"/>
-    <mergeCell ref="AY11:BD11"/>
-    <mergeCell ref="BE11:BI11"/>
-    <mergeCell ref="BJ11:BM11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:AJ10"/>
-    <mergeCell ref="AK10:AX10"/>
-    <mergeCell ref="AY12:BD12"/>
-    <mergeCell ref="BE12:BI12"/>
-    <mergeCell ref="BJ12:BM12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:AJ13"/>
-    <mergeCell ref="AK13:AX13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:AJ12"/>
-    <mergeCell ref="AK12:AX12"/>
-    <mergeCell ref="AY13:BD13"/>
-    <mergeCell ref="BE13:BI13"/>
-    <mergeCell ref="BJ13:BM13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="S14:AJ14"/>
-    <mergeCell ref="AK14:AX14"/>
-    <mergeCell ref="AY14:BD14"/>
-    <mergeCell ref="BE14:BI14"/>
-    <mergeCell ref="BJ14:BM14"/>
-    <mergeCell ref="AY17:BD17"/>
-    <mergeCell ref="BE17:BI17"/>
-    <mergeCell ref="BJ17:BM17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="L17:R17"/>
-    <mergeCell ref="S17:AJ17"/>
-    <mergeCell ref="AK17:AX17"/>
-    <mergeCell ref="AY15:BD15"/>
-    <mergeCell ref="BE15:BI15"/>
-    <mergeCell ref="BJ15:BM15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="S16:AJ16"/>
-    <mergeCell ref="AK16:AX16"/>
-    <mergeCell ref="AY16:BD16"/>
-    <mergeCell ref="BE16:BI16"/>
-    <mergeCell ref="BJ16:BM16"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="S15:AJ15"/>
-    <mergeCell ref="AK15:AX15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4428,26 +4560,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:T8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.59765625" defaultRowHeight="12.6"/>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="36"/>
-    <col min="4" max="4" width="20.19921875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="19.59765625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="20.19921875" style="36" customWidth="1"/>
+    <col min="1" max="1" width="14.625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="36"/>
+    <col min="4" max="4" width="20.25" style="36" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="36" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="36" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="20.69921875" style="36" customWidth="1"/>
-    <col min="10" max="13" width="9.59765625" style="36"/>
-    <col min="14" max="14" width="10.59765625" style="36" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" style="36"/>
+    <col min="8" max="8" width="14.375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="20.75" style="36" customWidth="1"/>
+    <col min="10" max="13" width="9.625" style="36"/>
+    <col min="14" max="14" width="10.625" style="36" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="36"/>
     <col min="16" max="16" width="16.5" style="36" customWidth="1"/>
-    <col min="17" max="16384" width="9.59765625" style="36"/>
+    <col min="17" max="16384" width="9.625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4455,7 +4587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="19.8" customHeight="1"/>
+    <row r="2" spans="1:20" ht="19.899999999999999" customHeight="1"/>
     <row r="3" spans="1:20" ht="36">
       <c r="A3" s="44" t="s">
         <v>57</v>
@@ -4518,7 +4650,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="18">
+    <row r="4" spans="1:20" ht="18.75">
       <c r="B4" s="42" t="s">
         <v>68</v>
       </c>
@@ -4577,7 +4709,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="18">
+    <row r="5" spans="1:20" ht="18.75">
       <c r="B5" s="42" t="s">
         <v>84</v>
       </c>
@@ -4636,7 +4768,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="18">
+    <row r="6" spans="1:20" ht="18.75">
       <c r="B6" s="42" t="s">
         <v>93</v>
       </c>
@@ -4695,7 +4827,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="18">
+    <row r="7" spans="1:20" ht="18.75">
       <c r="B7" s="42" t="s">
         <v>98</v>
       </c>
@@ -4754,7 +4886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="18">
+    <row r="8" spans="1:20" ht="18.75">
       <c r="B8" s="42" t="s">
         <v>109</v>
       </c>
